--- a/output/output_blink182.xlsx
+++ b/output/output_blink182.xlsx
@@ -435,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,10 +449,16 @@
         <v>34</v>
       </c>
       <c r="C1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D1">
+        <v>57</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,10 +466,16 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -471,10 +483,16 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -482,10 +500,16 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -493,10 +517,16 @@
         <v>96</v>
       </c>
       <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -504,10 +534,16 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -515,10 +551,16 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -526,10 +568,16 @@
         <v>44</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -539,8 +587,14 @@
       <c r="C9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -548,10 +602,16 @@
         <v>46</v>
       </c>
       <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>109</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -561,8 +621,14 @@
       <c r="C11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -570,10 +636,16 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>58</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -583,8 +655,14 @@
       <c r="C13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -592,10 +670,16 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -603,10 +687,16 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -614,10 +704,16 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -625,10 +721,16 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -636,10 +738,16 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -647,10 +755,16 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -658,10 +772,16 @@
         <v>48</v>
       </c>
       <c r="C20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -669,10 +789,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -680,10 +806,16 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -691,10 +823,16 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -702,10 +840,16 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -713,10 +857,16 @@
         <v>44</v>
       </c>
       <c r="C25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -724,10 +874,16 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -735,10 +891,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -746,10 +908,16 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -757,10 +925,16 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -768,6 +942,12 @@
         <v>3</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
         <v>6</v>
       </c>
     </row>
